--- a/evaluation/results/hybrid/autoencoder/LOF/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="C2">
-        <v>0.7191011235955056</v>
+        <v>0.5669882100750268</v>
       </c>
       <c r="D2">
-        <v>0.1198501872659176</v>
+        <v>0.9906367041198502</v>
       </c>
       <c r="E2">
-        <v>0.2054574638844302</v>
+        <v>0.7211997273346966</v>
       </c>
       <c r="F2">
-        <v>0.1438202247191011</v>
+        <v>0.8618442489410232</v>
       </c>
       <c r="G2">
-        <v>0.1238187365131334</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="H2">
-        <v>0.5365168539325843</v>
+        <v>0.7298461193171457</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>529</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>404</v>
       </c>
       <c r="K2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="L2">
-        <v>470</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5199182839632278</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="C2">
-        <v>0.9531835205992509</v>
+        <v>0.2434456928838951</v>
       </c>
       <c r="D2">
-        <v>0.6728354263053536</v>
+        <v>0.3886397608370702</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7191011235955056</v>
+        <v>0.5669882100750268</v>
       </c>
       <c r="C3">
-        <v>0.1198501872659176</v>
+        <v>0.9906367041198502</v>
       </c>
       <c r="D3">
-        <v>0.2054574638844302</v>
+        <v>0.7211997273346966</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="C4">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D4">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="E4">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6195097037793666</v>
+        <v>0.7649755865189949</v>
       </c>
       <c r="C5">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D5">
-        <v>0.4391464450948919</v>
+        <v>0.5549197440858834</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6195097037793666</v>
+        <v>0.7649755865189948</v>
       </c>
       <c r="C6">
-        <v>0.5365168539325843</v>
+        <v>0.6170411985018727</v>
       </c>
       <c r="D6">
-        <v>0.4391464450948919</v>
+        <v>0.5549197440858834</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>470</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>64</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
